--- a/Tracking the price of bitcoin.xlsx
+++ b/Tracking the price of bitcoin.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB014063-2BDD-4C32-8607-CAA50C5F5B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7DC1A00-2AE0-4950-BACD-D9C44D5F843A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5055" yWindow="2955" windowWidth="21600" windowHeight="11295" xr2:uid="{5180D6CB-8A2A-454D-A03A-8FFA56B0FBFF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5180D6CB-8A2A-454D-A03A-8FFA56B0FBFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -550,20 +550,20 @@
     <v>3</v>
     <v>Finance</v>
     <v>4</v>
-    <v>99830</v>
-    <v>35650</v>
-    <v>-752.41</v>
-    <v>-8.0309999999999999E-3</v>
+    <v>103619</v>
+    <v>37489.96</v>
+    <v>4841.1499999999996</v>
+    <v>4.9461999999999999E-2</v>
     <v>USD</v>
     <v>BTC</v>
-    <v>94439.28</v>
+    <v>103619</v>
     <v>Currency Pair</v>
-    <v>45621.992222222223</v>
-    <v>92596</v>
+    <v>45631.502939814818</v>
+    <v>97689.75</v>
     <v>Bitcoin/US Dollar FX Spot Rate</v>
-    <v>93723</v>
-    <v>93685.41</v>
-    <v>92933</v>
+    <v>97876</v>
+    <v>97876.85</v>
+    <v>102718</v>
     <v>BTCUSD</v>
     <v>BTC/USD</v>
   </rv>
@@ -1068,9 +1068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D7A97D-41FB-4E1A-A2AE-96C0427149BD}">
   <dimension ref="B2:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1102,15 +1100,15 @@
       </c>
       <c r="C3" s="15" cm="1">
         <f t="array" aca="1" ref="C3" ca="1">_FV($B3,"Price")</f>
-        <v>92933</v>
+        <v>102718</v>
       </c>
       <c r="D3" s="15" cm="1">
         <f t="array" aca="1" ref="D3" ca="1">_FV($B3,"Change")</f>
-        <v>-752.41</v>
+        <v>4841.1499999999996</v>
       </c>
       <c r="E3" s="16" cm="1">
         <f t="array" aca="1" ref="E3" ca="1">_FV($B3,"Change (%)",TRUE)</f>
-        <v>-8.0309999999999999E-3</v>
+        <v>4.9461999999999999E-2</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
@@ -1132,16 +1130,16 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="str">
-        <f ca="1">LEFT(C11,2)&amp;":"&amp;RIGHT(C11,2)</f>
-        <v>10:76</v>
+        <f ca="1">IF(LEN(C11)&gt;3,LEFT(C11,2)&amp;":"&amp;RIGHT(C11,2),LEFT(C11,1)&amp;":"&amp;RIGHT(C11,2))</f>
+        <v>9:73</v>
       </c>
       <c r="D6" s="7" cm="1">
         <f t="array" aca="1" ref="D6" ca="1">_FV($B3,"Low")</f>
-        <v>92596</v>
+        <v>97689.75</v>
       </c>
       <c r="E6" s="8" cm="1">
         <f t="array" aca="1" ref="E6" ca="1">_FV($B3,"High")</f>
-        <v>94439.28</v>
+        <v>103619</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
@@ -1161,11 +1159,11 @@
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D9" s="7" cm="1">
         <f t="array" aca="1" ref="D9" ca="1">_FV($B3,"52 week low",TRUE)</f>
-        <v>35650</v>
+        <v>37489.96</v>
       </c>
       <c r="E9" s="8" cm="1">
         <f t="array" aca="1" ref="E9" ca="1">_FV($B3,"52 week high",TRUE)</f>
-        <v>99830</v>
+        <v>103619</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
@@ -1186,15 +1184,15 @@
       </c>
       <c r="C11" s="17">
         <f ca="1">ROUNDDOWN((1/C$3)*100000000,0)</f>
-        <v>1076</v>
+        <v>973</v>
       </c>
       <c r="D11" s="18">
         <f ca="1">C11/100000000</f>
-        <v>1.076E-5</v>
+        <v>9.73E-6</v>
       </c>
       <c r="E11" s="19">
         <f ca="1">C11/100000000</f>
-        <v>1.076E-5</v>
+        <v>9.73E-6</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
@@ -1203,15 +1201,15 @@
       </c>
       <c r="C12" s="17">
         <f ca="1">ROUNDDOWN((10/C$3)*100000000,0)</f>
-        <v>10760</v>
+        <v>9735</v>
       </c>
       <c r="D12" s="18">
         <f t="shared" ref="D12:D17" ca="1" si="0">C12/100000000</f>
-        <v>1.076E-4</v>
+        <v>9.7349999999999995E-5</v>
       </c>
       <c r="E12" s="19">
         <f t="shared" ref="E12:E14" ca="1" si="1">C12/100000000</f>
-        <v>1.076E-4</v>
+        <v>9.7349999999999995E-5</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
@@ -1220,15 +1218,15 @@
       </c>
       <c r="C13" s="17">
         <f ca="1">ROUNDDOWN((100/C$3)*100000000,0)</f>
-        <v>107604</v>
+        <v>97353</v>
       </c>
       <c r="D13" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0760399999999999E-3</v>
+        <v>9.7353000000000001E-4</v>
       </c>
       <c r="E13" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0760399999999999E-3</v>
+        <v>9.7353000000000001E-4</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
@@ -1237,15 +1235,15 @@
       </c>
       <c r="C14" s="17">
         <f ca="1">ROUNDDOWN((1000/C$3)*100000000,0)</f>
-        <v>1076044</v>
+        <v>973539</v>
       </c>
       <c r="D14" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>1.076044E-2</v>
+        <v>9.73539E-3</v>
       </c>
       <c r="E14" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>1.076044E-2</v>
+        <v>9.73539E-3</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
@@ -1254,15 +1252,15 @@
       </c>
       <c r="C15" s="17">
         <f ca="1">ROUNDDOWN((10000/C$3)*100000000,0)</f>
-        <v>10760440</v>
+        <v>9735392</v>
       </c>
       <c r="D15" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1076044</v>
+        <v>9.7353919999999997E-2</v>
       </c>
       <c r="E15" s="19">
         <f t="shared" ref="E15:E17" ca="1" si="2">C15/100000000</f>
-        <v>0.1076044</v>
+        <v>9.7353919999999997E-2</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
@@ -1271,15 +1269,15 @@
       </c>
       <c r="C16" s="17">
         <f ca="1">ROUNDDOWN((100000/C$3)*100000000,0)</f>
-        <v>107604403</v>
+        <v>97353920</v>
       </c>
       <c r="D16" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>1.07604403</v>
+        <v>0.97353920000000005</v>
       </c>
       <c r="E16" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>1.07604403</v>
+        <v>0.97353920000000005</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
@@ -1288,15 +1286,15 @@
       </c>
       <c r="C17" s="20">
         <f ca="1">ROUNDDOWN((1000000/C$3)*100000000,0)</f>
-        <v>1076044031</v>
+        <v>973539204</v>
       </c>
       <c r="D17" s="21">
         <f t="shared" ca="1" si="0"/>
-        <v>10.76044031</v>
+        <v>9.7353920400000007</v>
       </c>
       <c r="E17" s="22">
         <f t="shared" ca="1" si="2"/>
-        <v>10.76044031</v>
+        <v>9.7353920400000007</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
@@ -1315,7 +1313,7 @@
       </c>
       <c r="C19" s="26">
         <f ca="1">$C$3*0.000001</f>
-        <v>9.2933000000000002E-2</v>
+        <v>0.10271799999999999</v>
       </c>
       <c r="D19" s="29" t="s">
         <v>27</v>
@@ -1330,14 +1328,14 @@
       </c>
       <c r="C20" s="26">
         <f ca="1">$C$3*0.00001</f>
-        <v>0.9293300000000001</v>
+        <v>1.02718</v>
       </c>
       <c r="D20" s="30">
         <v>1234567890</v>
       </c>
       <c r="E20" s="26">
         <f ca="1">$C$3*(D20/100000000)</f>
-        <v>1147320.9772136998</v>
+        <v>1268123.4452501999</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
@@ -1346,7 +1344,7 @@
       </c>
       <c r="C21" s="26">
         <f ca="1">$C$3*0.0001</f>
-        <v>9.2933000000000003</v>
+        <v>10.271800000000001</v>
       </c>
       <c r="D21" s="29" t="s">
         <v>27</v>
@@ -1361,14 +1359,14 @@
       </c>
       <c r="C22" s="26">
         <f ca="1">$C$3*0.001</f>
-        <v>92.933000000000007</v>
+        <v>102.718</v>
       </c>
       <c r="D22" s="30">
         <v>12345678</v>
       </c>
       <c r="E22" s="26">
         <f ca="1">$C$3*(D22/100000000)</f>
-        <v>11473.20893574</v>
+        <v>12681.23352804</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
@@ -1377,7 +1375,7 @@
       </c>
       <c r="C23" s="26">
         <f ca="1">$C$3*0.01</f>
-        <v>929.33</v>
+        <v>1027.18</v>
       </c>
       <c r="D23" s="29" t="s">
         <v>27</v>
@@ -1392,14 +1390,14 @@
       </c>
       <c r="C24" s="8">
         <f ca="1">$C$3*0.1</f>
-        <v>9293.3000000000011</v>
+        <v>10271.800000000001</v>
       </c>
       <c r="D24" s="31">
         <v>123456</v>
       </c>
       <c r="E24" s="8">
         <f ca="1">$C$3*(D24/100000000)</f>
-        <v>114.73136448</v>
+        <v>126.81153408</v>
       </c>
     </row>
   </sheetData>
